--- a/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA1D58D-278F-4330-B421-5F9AC77FC48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687A17C1-0228-4792-B9F6-3A87931210F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -447,10 +447,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S5aH3,S1aH3,S3aH3,S3aH2,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S2aH4,S5aH2,S4aH2,S5aH4</t>
-  </si>
-  <si>
-    <t>S4aH1,S1aH1,S2aH7,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH5,S2aH5,S5aH5,S4aH6,S4aH5,S2aH6,S3aH1,S3aH5,S1aH6,S2aH1,S3aH7</t>
+    <t>S1aH2,S2aH3,S5aH3,S1aH3,S2aH4,S5aH2,S1aH4,S2aH2,S3aH4,S4aH3,S4aH4,S3aH3,S3aH2,S4aH2,S5aH4</t>
+  </si>
+  <si>
+    <t>S5aH1,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S4aH1,S4aH6,S4aH5,S2aH6,S3aH1,S3aH5,S1aH5,S2aH5,S5aH5,S2aH1,S3aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S1aH1,S2aH7,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH5,S2aH5,S5aH5,S4aH6,S4aH5,S2aH6,S3aH1,S3aH5,S1aH6,S2aH1,S3aH7</v>
+        <v>S5aH1,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S4aH1,S4aH6,S4aH5,S2aH6,S3aH1,S3aH5,S1aH5,S2aH5,S5aH5,S2aH1,S3aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S5aH3,S1aH3,S3aH3,S3aH2,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S2aH4,S5aH2,S4aH2,S5aH4</v>
+        <v>S1aH2,S2aH3,S5aH3,S1aH3,S2aH4,S5aH2,S1aH4,S2aH2,S3aH4,S4aH3,S4aH4,S3aH3,S3aH2,S4aH2,S5aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1667,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0C0450-E9E6-4ED1-A911-49A3F9B19646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51C1F7D-30D9-4447-A0C3-1D6235E7755A}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1779,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001858C1-25F0-40DA-9EB8-095BEE640A34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97906F1-CEE0-49C3-99C8-6F8296E70DAB}">
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1858,10 +1858,10 @@
         <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>0.49810722774892152</v>
+        <v>9.9621445549784304E-2</v>
       </c>
       <c r="O4" t="s">
         <v>142</v>
@@ -1893,10 +1893,10 @@
         <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>9.9621445549784304E-2</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O5" t="s">
         <v>142</v>
@@ -1928,10 +1928,10 @@
         <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>0.41729025442380491</v>
+        <v>0.49810722774892158</v>
       </c>
       <c r="O6" t="s">
         <v>142</v>
@@ -2793,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E6FE84-01C0-4887-A49F-6566419C55C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E299C1-F933-4273-8093-785277956B80}">
   <dimension ref="B2:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
